--- a/R/bulk_input_rhd.xlsx
+++ b/R/bulk_input_rhd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49e603578f073f2d/TKI 2021/GASImpactModel/GASImpactModel/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\GitHub\GASImpactModel\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{DA26007B-0637-4AAA-8DE3-1C3EF8830417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B7598F-F9D9-4137-AEDC-955292A61A4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA373002-5DF3-4C41-8915-9BCE7464CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="525" windowWidth="22260" windowHeight="13215" xr2:uid="{C881E95F-BD69-473D-B83E-62708E602ACA}"/>
+    <workbookView xWindow="345" yWindow="-26925" windowWidth="43200" windowHeight="23295" xr2:uid="{C881E95F-BD69-473D-B83E-62708E602ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Scenario</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Ramp</t>
-  </si>
-  <si>
-    <t>Shift</t>
   </si>
   <si>
     <t>Rheumatic Heart Disease</t>
@@ -433,19 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9155C5-53DE-4C0B-8C9F-43645157CC45}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,12 +477,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -499,404 +496,19 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="G2">
+        <v>100</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="J2">
+        <v>2022</v>
       </c>
       <c r="K2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>2022</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>2022</v>
-      </c>
-      <c r="K5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
-      </c>
-      <c r="J10">
-        <v>2022</v>
-      </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>50</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>50</v>
-      </c>
-      <c r="J11">
-        <v>2022</v>
-      </c>
-      <c r="K11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>50</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13">
         <v>30</v>
       </c>
     </row>

--- a/R/bulk_input_rhd.xlsx
+++ b/R/bulk_input_rhd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\GitHub\GASImpactModel\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49e603578f073f2d/TKI 2021/GASImpactModel/GASImpactModel/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA373002-5DF3-4C41-8915-9BCE7464CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{DA26007B-0637-4AAA-8DE3-1C3EF8830417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B7598F-F9D9-4137-AEDC-955292A61A4D}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-26925" windowWidth="43200" windowHeight="23295" xr2:uid="{C881E95F-BD69-473D-B83E-62708E602ACA}"/>
+    <workbookView xWindow="405" yWindow="525" windowWidth="22260" windowHeight="13215" xr2:uid="{C881E95F-BD69-473D-B83E-62708E602ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Scenario</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Ramp</t>
+  </si>
+  <si>
+    <t>Shift</t>
   </si>
   <si>
     <t>Rheumatic Heart Disease</t>
@@ -430,19 +433,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9155C5-53DE-4C0B-8C9F-43645157CC45}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.86328125" customWidth="1"/>
-    <col min="3" max="3" width="9.86328125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,12 +480,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -496,19 +499,404 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>100</v>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>50</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
         <v>2022</v>
       </c>
-      <c r="K2">
+      <c r="K4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>2022</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>2022</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>2022</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13">
         <v>30</v>
       </c>
     </row>
